--- a/input/TestCases.xlsx
+++ b/input/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>TEST METHOD NAME</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Keyword.properties</t>
   </si>
   <si>
-    <t>openBrowser</t>
-  </si>
-  <si>
     <t>hReckLogin</t>
   </si>
   <si>
@@ -51,10 +48,29 @@
     <t>hReckLogout</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>changePassword</t>
+    <t>buttonChk</t>
+  </si>
+  <si>
+    <t>chPassMain</t>
+  </si>
+  <si>
+    <t>Asdf@123,Asdf@1234,Asdf@1234,Enter valid Current password|Asdf@1234,Asdf@1234,Asdf@1234,Password Changed successfully</t>
+  </si>
+  <si>
+    <t>chPassMain1</t>
+  </si>
+  <si>
+    <t>dasd,fsdf,fgfg,Password must meet following requirement:
+* At least 8 characters
+* Max 15 characters
+* At least 1 capital letter
+* At least 1 special character</t>
+  </si>
+  <si>
+    <t>chPassMain2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dadad,Asdf@1234,Asdf@123, Entered password doesn’t match with New password. </t>
   </si>
 </sst>
 </file>
@@ -122,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -130,6 +146,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,10 +1313,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV14"/>
+  <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1329,22 +1348,24 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1355,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -1365,29 +1386,47 @@
     </row>
     <row r="5" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -1407,12 +1446,12 @@
     <row r="10" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="4"/>
@@ -1426,7 +1465,7 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -1439,6 +1478,13 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
+    <row r="15" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input/TestCases.xlsx
+++ b/input/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>TEST METHOD NAME</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>hReckLogin</t>
-  </si>
-  <si>
-    <t>abc@gmail.com,123456,Enter valid password|abcdef,123456,Enter valid user name or emailid|Jagdish,Tes@1234,http://hreck.techeasesystems.in/#/pending-grn</t>
   </si>
   <si>
     <t>hReckLogout</t>
@@ -71,6 +68,12 @@
   </si>
   <si>
     <t xml:space="preserve">dadad,Asdf@1234,Asdf@123, Entered password doesn’t match with New password. </t>
+  </si>
+  <si>
+    <t>abc@gmail.com,123456,Enter valid password|abcdef,123456,Enter valid user name or emailid|narendra,Asdf@1234,http://hreck.techeasesystems.in/#/pending-grn</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1319,7 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1351,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -1360,7 +1363,7 @@
     </row>
     <row r="3" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1373,10 +1376,10 @@
     </row>
     <row r="4" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -1386,13 +1389,13 @@
     </row>
     <row r="5" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>5</v>
@@ -1401,13 +1404,13 @@
     </row>
     <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>5</v>
@@ -1416,13 +1419,13 @@
     </row>
     <row r="7" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>

--- a/input/TestCases.xlsx
+++ b/input/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>TEST METHOD NAME</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>goToCostCentre</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1322,7 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1351,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
@@ -1366,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -1433,10 +1436,16 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">

--- a/input/TestCases.xlsx
+++ b/input/TestCases.xlsx
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/input/TestCases.xlsx
+++ b/input/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>TEST METHOD NAME</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>abc@gmail.com,123456,Enter valid password|abcdef,123456,Enter valid user name or emailid|narendra,Asdf@1234,http://hreck.techeasesystems.in/#/pending-grn</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>goToCostCentre</t>
@@ -1322,7 +1319,7 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1354,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
@@ -1369,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -1382,7 +1379,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -1395,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
@@ -1410,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
@@ -1425,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -1437,7 +1434,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>

--- a/input/TestCases.xlsx
+++ b/input/TestCases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t xml:space="preserve">TEST METHOD NAME</t>
   </si>
@@ -49,13 +49,7 @@
     <t xml:space="preserve">hReckLogout</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">buttonChk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">chPassMain1</t>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t xml:space="preserve">Asdf@123,Asdf@1234,Asdf@1234,Enter valid Current password|Asdf@1234,Asdf@1234,Asdf@1234,Password Changed successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forgotPasswordMain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsafa@gmail.com,Please enter valid Email Id|upavptechease@gmail.com,New password is generated and email is sent to registered email address.</t>
   </si>
 </sst>
 </file>
@@ -254,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -284,6 +284,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -362,7 +369,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,6 +378,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,8 +394,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -485,176 +504,167 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="91.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="5" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="2" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:D8"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.25"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/input/TestCases.xlsx
+++ b/input/TestCases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t xml:space="preserve">TEST METHOD NAME</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">hReckLogin</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">abc@gmail.com,123456,Enter valid password|abcdef,123456,Enter valid user name or emailid|narendra,Asdf@1234,http://hreck.techeasesystems.in/#/pending-grn</t>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t xml:space="preserve">dsafa@gmail.com,Please enter valid Email Id|upavptechease@gmail.com,New password is generated and email is sent to registered email address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gotoSupplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -637,10 +643,16 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/input/TestCases.xlsx
+++ b/input/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>TEST METHOD NAME</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>abcdefgh@gmail.com,Please enter valid Email Id|upavptechease@gmail.com,New password is generated and email is sent to registered email address.</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1382,7 @@
   <dimension ref="A1:XFD26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1411,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
@@ -1426,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -1439,7 +1442,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -1452,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
@@ -1467,7 +1470,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
@@ -1482,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -1510,7 +1513,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
@@ -17797,8 +17800,12 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>

--- a/input/TestCases.xlsx
+++ b/input/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>TEST METHOD NAME</t>
   </si>
@@ -136,7 +136,7 @@
     <t>abcdefgh@gmail.com,Please enter valid Email Id|upavptechease@gmail.com,New password is generated and email is sent to registered email address.</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:XFD26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17807,7 +17807,9 @@
         <v>3</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/input/TestCases.xlsx
+++ b/input/TestCases.xlsx
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:XFD26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/input/TestCases.xlsx
+++ b/input/TestCases.xlsx
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:XFD26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
